--- a/src/ExecucoesGerais/rosenbrock_std2.xlsx
+++ b/src/ExecucoesGerais/rosenbrock_std2.xlsx
@@ -30,9 +30,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -44,14 +44,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -60,7 +52,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -69,13 +69,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,24 +99,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,17 +144,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,14 +182,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,7 +197,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,7 +275,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,67 +347,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,91 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,6 +388,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,21 +480,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -493,148 +493,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3352,14 +3352,15 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="783889103"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="783889103"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="0.5"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="l"/>
